--- a/assingment/fullstack.xlsx
+++ b/assingment/fullstack.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\cse\mern\workshop\assingment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5CEEFC-FE27-4E49-9DD8-CE3C55B0C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B232D47-7628-4AD0-86BF-21F5F8AC4D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99D9A743-ADA0-4376-BB5C-5AC5B86B581D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{99D9A743-ADA0-4376-BB5C-5AC5B86B581D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="customers" sheetId="1" r:id="rId1"/>
+    <sheet name="signup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Customer Master</t>
   </si>
@@ -88,6 +89,42 @@
   </si>
   <si>
     <t>&lt;Edit Customer&gt;</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>&lt;Sign Up&gt;</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>&lt;Login&gt;</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Mongodb</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
 </sst>
 </file>
@@ -459,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11C92D1-7931-422B-B49F-728BE3B31825}">
   <dimension ref="B7:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,4 +598,124 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85B903E-9931-40F9-AC86-DAB30799F3EF}">
+  <dimension ref="B4:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>